--- a/[5] Tester Results/SIGNIFICANT_DATE_SPLIT.xlsx
+++ b/[5] Tester Results/SIGNIFICANT_DATE_SPLIT.xlsx
@@ -463,14 +463,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>reactionTime</t>
+          <t>peakTime</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>40.71981696082837</v>
+        <v>26.96475364772135</v>
       </c>
       <c r="D2" t="n">
-        <v>1.43814969961311e-09</v>
+        <v>1.395333889719679e-06</v>
       </c>
     </row>
     <row r="3">
@@ -481,14 +481,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>peakTime</t>
+          <t>difference</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>6.47056010111582</v>
+        <v>27.03594767367661</v>
       </c>
       <c r="D3" t="n">
-        <v>0.03934918363608641</v>
+        <v>1.346537820829866e-06</v>
       </c>
     </row>
     <row r="4">
@@ -499,14 +499,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>difference</t>
+          <t>peakValue</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>36.17761360834029</v>
+        <v>71.6393764548254</v>
       </c>
       <c r="D4" t="n">
-        <v>1.393577162798627e-08</v>
+        <v>2.777838925562061e-16</v>
       </c>
     </row>
     <row r="5">
@@ -517,14 +517,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>peakValue</t>
+          <t>PTPA</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>67.97340235263626</v>
+        <v>70.79371071066566</v>
       </c>
       <c r="D5" t="n">
-        <v>1.736853631493669e-15</v>
+        <v>4.23975774743168e-16</v>
       </c>
     </row>
     <row r="6">
@@ -535,14 +535,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>PTPA</t>
+          <t>PTTA</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>67.94543557173313</v>
+        <v>66.32382150721253</v>
       </c>
       <c r="D6" t="n">
-        <v>1.761311336270549e-15</v>
+        <v>3.962462364754025e-15</v>
       </c>
     </row>
     <row r="7">
@@ -553,14 +553,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>PTTA</t>
+          <t>RMS</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>63.96227455487309</v>
+        <v>71.1131868396828</v>
       </c>
       <c r="D7" t="n">
-        <v>1.290531339274274e-14</v>
+        <v>3.61382969749108e-16</v>
       </c>
     </row>
     <row r="8">
@@ -571,14 +571,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>RMS</t>
+          <t>tau</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>71.77491174723002</v>
+        <v>13.95361424427159</v>
       </c>
       <c r="D8" t="n">
-        <v>2.595828190588308e-16</v>
+        <v>0.0009332782947339487</v>
       </c>
     </row>
     <row r="9">
@@ -593,10 +593,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>89.3025559599954</v>
+        <v>79.10438043310012</v>
       </c>
       <c r="D9" t="n">
-        <v>4.056919248891816e-20</v>
+        <v>6.648168859945851e-18</v>
       </c>
     </row>
     <row r="10">
@@ -607,14 +607,14 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>reactionTime</t>
+          <t>peakTime</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>7.017318285534704</v>
+        <v>23.29906343925026</v>
       </c>
       <c r="D10" t="n">
-        <v>0.02993702881870226</v>
+        <v>8.723136279517083e-06</v>
       </c>
     </row>
     <row r="11">
@@ -625,14 +625,14 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>peakTime</t>
+          <t>difference</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>9.468694569794383</v>
+        <v>22.57354340349176</v>
       </c>
       <c r="D11" t="n">
-        <v>0.008788183139984241</v>
+        <v>1.253768433934431e-05</v>
       </c>
     </row>
     <row r="12">
@@ -647,10 +647,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>32.62925795747605</v>
+        <v>49.99224716055307</v>
       </c>
       <c r="D12" t="n">
-        <v>8.215739496033676e-08</v>
+        <v>1.394188384393506e-11</v>
       </c>
     </row>
     <row r="13">
@@ -665,10 +665,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>32.94503113188227</v>
+        <v>50.11225452747942</v>
       </c>
       <c r="D13" t="n">
-        <v>7.015803014121891e-08</v>
+        <v>1.312992337189096e-11</v>
       </c>
     </row>
     <row r="14">
@@ -683,10 +683,10 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>33.55263089516328</v>
+        <v>51.34001408049846</v>
       </c>
       <c r="D14" t="n">
-        <v>5.177722544518056e-08</v>
+        <v>7.106529971601795e-12</v>
       </c>
     </row>
     <row r="15">
@@ -701,10 +701,10 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>15.44211267394661</v>
+        <v>40.60464257004043</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0004433919850892433</v>
+        <v>1.523399806481973e-09</v>
       </c>
     </row>
     <row r="16">
@@ -719,10 +719,10 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>12.69847261542753</v>
+        <v>21.38296459403728</v>
       </c>
       <c r="D16" t="n">
-        <v>0.001748081623078867</v>
+        <v>2.273778915693159e-05</v>
       </c>
     </row>
     <row r="17">
@@ -737,10 +737,10 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>7.814756562161335</v>
+        <v>36.50893512485197</v>
       </c>
       <c r="D17" t="n">
-        <v>0.02009311055598973</v>
+        <v>1.180824804927386e-08</v>
       </c>
     </row>
   </sheetData>

--- a/[5] Tester Results/SIGNIFICANT_DATE_SPLIT.xlsx
+++ b/[5] Tester Results/SIGNIFICANT_DATE_SPLIT.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,7 +463,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>peakTime</t>
+          <t>reactionTime</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -481,14 +481,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>difference</t>
+          <t>peakValue</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>27.03594767367661</v>
+        <v>71.6393764548254</v>
       </c>
       <c r="D3" t="n">
-        <v>1.346537820829866e-06</v>
+        <v>2.777838925562061e-16</v>
       </c>
     </row>
     <row r="4">
@@ -499,14 +499,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>peakValue</t>
+          <t>PTPA</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>71.6393764548254</v>
+        <v>70.79371071066566</v>
       </c>
       <c r="D4" t="n">
-        <v>2.777838925562061e-16</v>
+        <v>4.23975774743168e-16</v>
       </c>
     </row>
     <row r="5">
@@ -517,14 +517,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>PTPA</t>
+          <t>PTTA</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>70.79371071066566</v>
+        <v>66.32382150721253</v>
       </c>
       <c r="D5" t="n">
-        <v>4.23975774743168e-16</v>
+        <v>3.962462364754025e-15</v>
       </c>
     </row>
     <row r="6">
@@ -535,14 +535,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>PTTA</t>
+          <t>RMS</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>66.32382150721253</v>
+        <v>71.1131868396828</v>
       </c>
       <c r="D6" t="n">
-        <v>3.962462364754025e-15</v>
+        <v>3.61382969749108e-16</v>
       </c>
     </row>
     <row r="7">
@@ -553,14 +553,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>RMS</t>
+          <t>tau</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>71.1131868396828</v>
+        <v>13.95361424427159</v>
       </c>
       <c r="D7" t="n">
-        <v>3.61382969749108e-16</v>
+        <v>0.0009332782947339487</v>
       </c>
     </row>
     <row r="8">
@@ -571,32 +571,32 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>tau</t>
+          <t>AUC</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>13.95361424427159</v>
+        <v>79.10438043310012</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0009332782947339487</v>
+        <v>6.648168859945851e-18</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>AUC</t>
+          <t>reactionTime</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>79.10438043310012</v>
+        <v>23.29906343925026</v>
       </c>
       <c r="D9" t="n">
-        <v>6.648168859945851e-18</v>
+        <v>8.723136279517083e-06</v>
       </c>
     </row>
     <row r="10">
@@ -607,14 +607,14 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>peakTime</t>
+          <t>peakValue</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>23.29906343925026</v>
+        <v>49.99224716055307</v>
       </c>
       <c r="D10" t="n">
-        <v>8.723136279517083e-06</v>
+        <v>1.394188384393506e-11</v>
       </c>
     </row>
     <row r="11">
@@ -625,14 +625,14 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>difference</t>
+          <t>PTPA</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>22.57354340349176</v>
+        <v>50.11225452747942</v>
       </c>
       <c r="D11" t="n">
-        <v>1.253768433934431e-05</v>
+        <v>1.312992337189096e-11</v>
       </c>
     </row>
     <row r="12">
@@ -643,14 +643,14 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>peakValue</t>
+          <t>PTTA</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>49.99224716055307</v>
+        <v>51.34001408049846</v>
       </c>
       <c r="D12" t="n">
-        <v>1.394188384393506e-11</v>
+        <v>7.106529971601795e-12</v>
       </c>
     </row>
     <row r="13">
@@ -661,14 +661,14 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>PTPA</t>
+          <t>RMS</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>50.11225452747942</v>
+        <v>40.60464257004043</v>
       </c>
       <c r="D13" t="n">
-        <v>1.312992337189096e-11</v>
+        <v>1.523399806481973e-09</v>
       </c>
     </row>
     <row r="14">
@@ -679,14 +679,14 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>PTTA</t>
+          <t>tau</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>51.34001408049846</v>
+        <v>21.38296459403728</v>
       </c>
       <c r="D14" t="n">
-        <v>7.106529971601795e-12</v>
+        <v>2.273778915693159e-05</v>
       </c>
     </row>
     <row r="15">
@@ -697,49 +697,13 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>RMS</t>
+          <t>AUC</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>40.60464257004043</v>
+        <v>36.50893512485197</v>
       </c>
       <c r="D15" t="n">
-        <v>1.523399806481973e-09</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>tau</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>21.38296459403728</v>
-      </c>
-      <c r="D16" t="n">
-        <v>2.273778915693159e-05</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>AUC</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>36.50893512485197</v>
-      </c>
-      <c r="D17" t="n">
         <v>1.180824804927386e-08</v>
       </c>
     </row>
